--- a/ClassComputerAssignments.xlsx
+++ b/ClassComputerAssignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccrow/SynologyDrive/kubernetes-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ED0D3E-27DC-3347-97B9-8A91B02DD689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD516F-5D8D-5E4B-AA9F-8AA6E19D18FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{BF274F19-62EC-1E4D-8F63-90CEC97917F4}"/>
+    <workbookView xWindow="2340" yWindow="4840" windowWidth="25720" windowHeight="13480" xr2:uid="{BF274F19-62EC-1E4D-8F63-90CEC97917F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Student</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>DougS</t>
+  </si>
+  <si>
+    <t>BruceM</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E9E472-C474-7142-B40C-ACF223797F1B}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,7 +672,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -709,6 +712,11 @@
       </c>
       <c r="C15" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ClassComputerAssignments.xlsx
+++ b/ClassComputerAssignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccrow/SynologyDrive/kubernetes-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD516F-5D8D-5E4B-AA9F-8AA6E19D18FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2445D-762B-6E41-A9B5-102FE46D9DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="4840" windowWidth="25720" windowHeight="13480" xr2:uid="{BF274F19-62EC-1E4D-8F63-90CEC97917F4}"/>
+    <workbookView xWindow="8700" yWindow="3620" windowWidth="25720" windowHeight="13480" xr2:uid="{BF274F19-62EC-1E4D-8F63-90CEC97917F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>ScottH</t>
   </si>
   <si>
-    <t>BrianK</t>
-  </si>
-  <si>
     <t>ccrow01</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>BruceM</t>
+  </si>
+  <si>
+    <t>NickB</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,32 +576,32 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -620,103 +620,103 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ClassComputerAssignments.xlsx
+++ b/ClassComputerAssignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccrow/SynologyDrive/kubernetes-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2445D-762B-6E41-A9B5-102FE46D9DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB89AC4-0ACB-EB41-A3F9-C1180BD1A103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="3620" windowWidth="25720" windowHeight="13480" xr2:uid="{BF274F19-62EC-1E4D-8F63-90CEC97917F4}"/>
+    <workbookView xWindow="27400" yWindow="8100" windowWidth="25720" windowHeight="13480" xr2:uid="{BF274F19-62EC-1E4D-8F63-90CEC97917F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Student</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>NickB</t>
+  </si>
+  <si>
+    <t>ccrowa01</t>
+  </si>
+  <si>
+    <t>ccrowa02</t>
+  </si>
+  <si>
+    <t>10.228.112.209</t>
+  </si>
+  <si>
+    <t>10.228.112.208</t>
   </si>
 </sst>
 </file>
@@ -536,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E9E472-C474-7142-B40C-ACF223797F1B}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,6 +730,20 @@
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ClassComputerAssignments.xlsx
+++ b/ClassComputerAssignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccrow/SynologyDrive/kubernetes-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB89AC4-0ACB-EB41-A3F9-C1180BD1A103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DD2859-E21E-9C4C-80BA-844B1DD62EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27400" yWindow="8100" windowWidth="25720" windowHeight="13480" xr2:uid="{BF274F19-62EC-1E4D-8F63-90CEC97917F4}"/>
+    <workbookView xWindow="25480" yWindow="8100" windowWidth="25720" windowHeight="13480" xr2:uid="{BF274F19-62EC-1E4D-8F63-90CEC97917F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Student</t>
   </si>
@@ -169,18 +169,6 @@
   </si>
   <si>
     <t>NickB</t>
-  </si>
-  <si>
-    <t>ccrowa01</t>
-  </si>
-  <si>
-    <t>ccrowa02</t>
-  </si>
-  <si>
-    <t>10.228.112.209</t>
-  </si>
-  <si>
-    <t>10.228.112.208</t>
   </si>
 </sst>
 </file>
@@ -548,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E9E472-C474-7142-B40C-ACF223797F1B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,20 +718,6 @@
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
